--- a/Entrada/Data TF Derivados.xlsx
+++ b/Entrada/Data TF Derivados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Derivados---Gatito\Entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D5CEC1-0EDD-43AD-83E7-552D8ACBB6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6BD83-65FD-47E1-B5F0-8B5B07DD037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{374A6CBC-4357-42AA-ADEC-6B87ABCA9438}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{374A6CBC-4357-42AA-ADEC-6B87ABCA9438}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasas US Trea %" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>USGG3M Index</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Dates</t>
-  </si>
-  <si>
-    <t>PX_LAST</t>
   </si>
   <si>
     <t>XS1451165036</t>
@@ -283,7 +280,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -301,8 +298,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,79 +637,47 @@
   <sheetPr codeName="Hoja2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K630"/>
+  <dimension ref="A2:K630"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -22709,8 +22672,8 @@
   </sheetPr>
   <dimension ref="A1:H633"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22727,33 +22690,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="7">
         <v>2</v>
@@ -22779,54 +22742,54 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -22834,25 +22797,25 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -39217,91 +39180,91 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6">
         <v>44802</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="5">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6">
+        <v>45898</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="11">
-        <v>4</v>
-      </c>
-      <c r="K2" s="12">
-        <v>45898</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5">
         <v>42000000</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5">
         <v>42000000</v>
@@ -39310,38 +39273,38 @@
         <v>44819</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="11">
+      <c r="H3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="5">
         <v>4.25</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="6">
         <v>46645</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5">
         <v>30000000</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5">
         <v>30000000</v>
@@ -39350,38 +39313,38 @@
         <v>43388</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="11">
+      <c r="H4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="5">
         <v>4.2</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="6">
         <v>47041</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5">
         <v>15000000</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5">
         <v>15000000</v>
@@ -39390,38 +39353,38 @@
         <v>43791</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="11">
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="5">
         <v>3</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="6">
         <v>47444</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5">
         <v>50000000</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5">
         <v>50000000</v>
@@ -39430,38 +39393,38 @@
         <v>44692</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="11">
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="5">
         <v>4.0199999999999996</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="6">
         <v>48345</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5">
         <v>17000000</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5">
         <v>17000000</v>
@@ -39470,38 +39433,38 @@
         <v>44090</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="11">
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="5">
         <v>2.6</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="6">
         <v>49568</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5">
         <v>10000000</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5">
         <v>10000000</v>
@@ -39510,25 +39473,25 @@
         <v>43034</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="11">
+      <c r="H8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="5">
         <v>3.7</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="6">
         <v>50339</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
